--- a/biology/Botanique/Aphanocalyx/Aphanocalyx.xlsx
+++ b/biology/Botanique/Aphanocalyx/Aphanocalyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aphanocalyx est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Afrique, qui comprend une quinzaine d'espèces acceptées.
-Ce sont des arbres ou arbustes poussant dans les forêts pluviales et forêts riveraines de plaine ou submontagnardes, souvent sur des sols sablonneux pauvres en éléments nutritifs. Ces espèces forment habituellement des peuplements monodominants[3].
-Certaines espèces sont exploitées pour leur bois utilisé comme bois d'œuvre et commercialisé sous le nom d’« andoung »[4].
+Ce sont des arbres ou arbustes poussant dans les forêts pluviales et forêts riveraines de plaine ou submontagnardes, souvent sur des sols sablonneux pauvres en éléments nutritifs. Ces espèces forment habituellement des peuplements monodominants.
+Certaines espèces sont exploitées pour leur bois utilisé comme bois d'œuvre et commercialisé sous le nom d’« andoung ».
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (27 novembre 2018)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (27 novembre 2018) :
 Aphanocalyx cynometroides Oliv.
 Aphanocalyx djumaensis (De Wild.) J.Leonard
 Aphanocalyx hedinii (A.Chev.) Wieringa
